--- a/dataset/whb_supplements_copy.xlsx
+++ b/dataset/whb_supplements_copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/architdatar/Software/NewsClassification_scrapy/NewsClassification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/architdatar/repo/StatMachLearn/NewsArticleClassification/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0369C95F-B27C-5943-A523-72543BB69781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4512FEAD-9982-E44F-B8E5-2527AEA83E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{62A0453A-697E-4D5F-87AF-891529693596}"/>
   </bookViews>
@@ -7007,8 +7007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6674666-53D7-4B82-973B-6C2D22E775ED}">
   <dimension ref="A1:R493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33688,7 +33688,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R493" xr:uid="{DC83F485-5C07-6343-97BA-9F0FA86EDA3C}"/>
+  <autoFilter ref="A1:R493" xr:uid="{A5E48343-BFBA-D84E-87E0-4CA00E19FBAE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R493">
     <sortCondition ref="H1:H493"/>
   </sortState>
